--- a/HMITags3.xlsx
+++ b/HMITags3.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hmi Tags" sheetId="1" r:id="Ra11a9bd9bc0e4cd5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Multiplexing" sheetId="2" r:id="R5b89f6d19dc74b4d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hmi Tags" sheetId="1" r:id="Rc3665c0747ca4729"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Multiplexing" sheetId="2" r:id="Rcf66189affca4aaf"/>
   </x:sheets>
 </x:workbook>
 </file>
